--- a/Calendario-participación.xlsx
+++ b/Calendario-participación.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t xml:space="preserve">Unidad</t>
   </si>
@@ -52,22 +52,19 @@
     <t xml:space="preserve">3. Aplicación de modelos digitales de elevación</t>
   </si>
   <si>
-    <t xml:space="preserve">Iris</t>
+    <t xml:space="preserve">Iris/Citlali</t>
   </si>
   <si>
     <t xml:space="preserve">4. Análisis multicriterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Gustavo</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Evaluación de la calidad de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Modelado de la distribución potencial de especies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Modelado de cambio de uso/cobertura del suelo</t>
+    <t xml:space="preserve">6. Modelado de cambio de uso de cobertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Modelado de la distribución potencial de especies</t>
   </si>
   <si>
     <t xml:space="preserve">8. Discusión y conclusión</t>
@@ -86,7 +83,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -104,7 +100,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +116,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFF6F9D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE6EF"/>
         <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
@@ -170,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,14 +182,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,7 +215,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF6F9D4"/>
-      <rgbColor rgb="FFDEE6EF"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -286,7 +268,7 @@
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.64"/>
   </cols>
@@ -319,10 +301,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>44960</v>
+        <f aca="false">C2+4</f>
+        <v>44959</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -337,13 +320,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>44963</v>
+        <f aca="false">C2+7</f>
+        <v>44962</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>44967</v>
+        <f aca="false">C3+4</f>
+        <v>44966</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -357,10 +342,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>44970</v>
+        <f aca="false">C3+7</f>
+        <v>44969</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>44958</v>
+        <f aca="false">C4+4</f>
+        <v>44973</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -375,10 +362,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>44977</v>
+        <f aca="false">C4+7</f>
+        <v>44976</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>44981</v>
+        <f aca="false">C5+4</f>
+        <v>44980</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -393,10 +382,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>44984</v>
+        <f aca="false">C5+7</f>
+        <v>44983</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>44988</v>
+        <f aca="false">C6+3</f>
+        <v>44986</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -411,10 +402,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>44991</v>
+        <f aca="false">C6+6</f>
+        <v>44989</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>44995</v>
+        <f aca="false">C7+4</f>
+        <v>44993</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -422,167 +415,185 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>45002</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">C7+7</f>
+        <v>44996</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">C8+4</f>
+        <v>45000</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45003</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">C8+7</f>
+        <v>45003</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">C9+4</f>
+        <v>45007</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">C9+14</f>
+        <v>45017</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">C10+4</f>
+        <v>45021</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">C10+7</f>
+        <v>45024</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">C11+4</f>
+        <v>45028</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>45009</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>45005</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C12" s="5" t="n">
+        <f aca="false">C11+7</f>
+        <v>45031</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">C12+4</f>
+        <v>45035</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="C13" s="5" t="n">
+        <f aca="false">C12+7</f>
+        <v>45038</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">C13+4</f>
+        <v>45042</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>45016</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="C14" s="3" t="n">
+        <f aca="false">C13+7</f>
+        <v>45045</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14+4</f>
+        <v>45049</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>45037</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>45044</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>45051</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>45047</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>45058</v>
-      </c>
-      <c r="E15" s="7" t="n">
+      <c r="C15" s="3" t="n">
+        <f aca="false">C14+7</f>
+        <v>45052</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15+4</f>
         <v>45056</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
+      <c r="E15" s="3" t="n">
+        <v>45056</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>45061</v>
+        <f aca="false">C15+7</f>
+        <v>45059</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>45065</v>
+        <f aca="false">C16+4</f>
+        <v>45063</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>45061</v>
@@ -593,16 +604,18 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>45068</v>
+        <f aca="false">C16+7</f>
+        <v>45066</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>45072</v>
+        <f aca="false">C17+4</f>
+        <v>45070</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -612,7 +625,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
